--- a/Example/Project_E/UTILL/excel2json-master/ConversationText.xlsx
+++ b/Example/Project_E/UTILL/excel2json-master/ConversationText.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,218 +25,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>STAGE_1_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_1_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_2_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_2_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_3_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_3_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_4_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_4_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRAN/구원자님 동료들을 구해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRAN/세계를 왜곡하는 힘으로 저희에게 힘을주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRAN/구원자님 굉장해요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRAN/전투를 승리해서 마음에 틈이 생기면 제가 세뇌를 풀 수 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRAN/지금은 외계인에게 세뇌당해서 우리를 공격하지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRAN/구원자님 우리의 동료 티보치나에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRAN/구원자님 굉장해요! 그러면 세뇌를 풀어볼게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRAN/다음은 버베나에요 중력을 자유롭게 조정할 수 있는 능력이 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRAN/잠시만 조용해 주세요! 히얍!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRAN/여기까지 올 수 있었던 건 구원자님 덕분이에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRAN/잠시만 조용해주세요. 지잉~~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANRAN/우리가 소환하는데 성공한 구원자님이셔! 다른세계에서 오셨다구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRIS/일단 몸좀 풀어 볼까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRIS/제법이야 애송이!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRIS/티보치나 한판 붙어보자고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRIS/티보치나 정신차려!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRIS/그냥 가서 한대만 때리면 해결되는 문제라구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRIS/잡담은 그만하고 전투준비!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRIS/내가 한대 퍽 소리나게 때려서 깨워줬지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HERO/감도 안잡히지만 어떻게든 해볼게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HERO/점점 감이 잡히는 건지도?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HERO/티보치나씨 내가 구해줄게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HERO/중력이라니.. 너무 대단한 능력아니야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HERO/안녕하세요 버베나씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HERO/이제 마지막 싸움인가? 겨우 여기까지 왔네..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HERO/이제 끝났다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HERO/그게 어렵지 않을까요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIBOUCHINA/내가 지금까지 무슨짓을 한거지..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIBOUCHINA/구원자님 저도 작은 힘이지만 도와드릴게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIBOUCHINA/장미는 투명화 능력을 갖고 있어요 조심하세요 구원자님!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIBOUCHINA/수고하셨어요 구원자님~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERBENA/읔.. 내가 지금까지 한일들이 믿겨지지 않는걸..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERBENA/구원자님 아까는 죄송했어요! 근대 구원자님이 살던 세계는 어ㄸ.ㅓ…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROSE/으…으응? 잠시 꿈을 꾼 것 같은데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROSE/한대가 아닌것 같은데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERBENA/응? 처음보는 얼굴인걸?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERBENA/우앗! 다른 세계라니 너무 궁금해요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_1_END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_1_START</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_2_START</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_2_END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_3_START</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_3_END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_4_START</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE_4_END</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANRAN/구원자님 동료들을 구해주세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANRAN/세계를 왜곡하는 힘으로 저희에게 힘을주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANRAN/구원자님 굉장해요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANRAN/전투를 승리해서 마음에 틈이 생기면 제가 세뇌를 풀 수 있어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANRAN/지금은 외계인에게 세뇌당해서 우리를 공격하지만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANRAN/구원자님 우리의 동료 티보치나에요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANRAN/구원자님 굉장해요! 그러면 세뇌를 풀어볼게요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANRAN/다음은 버베나에요 중력을 자유롭게 조정할 수 있는 능력이 있어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANRAN/잠시만 조용해 주세요! 히얍!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANRAN/여기까지 올 수 있었던 건 구원자님 덕분이에요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANRAN/잠시만 조용해주세요. 지잉~~~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HANRAN/우리가 소환하는데 성공한 구원자님이셔! 다른세계에서 오셨다구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRIS/일단 몸좀 풀어 볼까!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRIS/제법이야 애송이!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRIS/티보치나 한판 붙어보자고!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRIS/티보치나 정신차려!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRIS/그냥 가서 한대만 때리면 해결되는 문제라구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRIS/잡담은 그만하고 전투준비!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRIS/내가 한대 퍽 소리나게 때려서 깨워줬지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HERO/감도 안잡히지만 어떻게든 해볼게!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HERO/점점 감이 잡히는 건지도?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HERO/티보치나씨 내가 구해줄게!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HERO/중력이라니.. 너무 대단한 능력아니야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HERO/안녕하세요 버베나씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HERO/이제 마지막 싸움인가? 겨우 여기까지 왔네..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HERO/이제 끝났다..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HERO/그게 어렵지 않을까요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIBOUCHINA/내가 지금까지 무슨짓을 한거지..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIBOUCHINA/구원자님 저도 작은 힘이지만 도와드릴게요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIBOUCHINA/장미는 투명화 능력을 갖고 있어요 조심하세요 구원자님!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIBOUCHINA/수고하셨어요 구원자님~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERBENA/읔.. 내가 지금까지 한일들이 믿겨지지 않는걸..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERBENA/구원자님 아까는 죄송했어요! 근대 구원자님이 살던 세계는 어ㄸ.ㅓ…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROSE/으…으응? 잠시 꿈을 꾼 것 같은데..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROSE/한대가 아닌것 같은데..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERBENA/응? 처음보는 얼굴인걸?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERBENA/우앗! 다른 세계라니 너무 궁금해요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,7 +572,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,179 +591,179 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Example/Project_E/UTILL/excel2json-master/ConversationText.xlsx
+++ b/Example/Project_E/UTILL/excel2json-master/ConversationText.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +25,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>$key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>STAGE_1_END</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,17 +230,13 @@
   </si>
   <si>
     <t>TEXT_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,7 +572,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,179 +591,179 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
